--- a/artfynd/A 54750-2025 artfynd.xlsx
+++ b/artfynd/A 54750-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130861157</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130853761</v>
       </c>
       <c r="B3" t="n">
-        <v>79240</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>130861152</v>
       </c>
       <c r="B4" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>130861156</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>130861158</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>130861153</v>
       </c>
       <c r="B7" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>130853919</v>
       </c>
       <c r="B8" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>130861159</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130861155</v>
+        <v>130861151</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,34 +1513,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442870</v>
+        <v>442749</v>
       </c>
       <c r="R10" t="n">
-        <v>7039632</v>
+        <v>7039568</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1577,7 +1585,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På död undertryck gran.</t>
+          <t>Ringhack, äldre, enstaka på en gran. Mycket högt livsmiljövärde för tretåig hackspett kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1588,6 +1596,31 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1604,10 +1637,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130861151</v>
+        <v>130861155</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1615,42 +1648,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442749</v>
+        <v>442870</v>
       </c>
       <c r="R11" t="n">
-        <v>7039568</v>
+        <v>7039632</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1687,7 +1712,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran. Mycket högt livsmiljövärde för tretåig hackspett kring fyndplatsen.</t>
+          <t>På död undertryck gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1698,31 +1723,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1742,7 +1742,7 @@
         <v>130861154</v>
       </c>
       <c r="B12" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>130865695</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>130865696</v>
       </c>
       <c r="B14" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>130865697</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>130865694</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>130865692</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>130865947</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>130865952</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>130853402</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>130853040</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>

--- a/artfynd/A 54750-2025 artfynd.xlsx
+++ b/artfynd/A 54750-2025 artfynd.xlsx
@@ -1502,10 +1502,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130861151</v>
+        <v>130861155</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,42 +1513,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442749</v>
+        <v>442870</v>
       </c>
       <c r="R10" t="n">
-        <v>7039568</v>
+        <v>7039632</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1585,7 +1577,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran. Mycket högt livsmiljövärde för tretåig hackspett kring fyndplatsen.</t>
+          <t>På död undertryck gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1596,31 +1588,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1637,10 +1604,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130861155</v>
+        <v>130861151</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1648,34 +1615,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442870</v>
+        <v>442749</v>
       </c>
       <c r="R11" t="n">
-        <v>7039632</v>
+        <v>7039568</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1712,7 +1687,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På död undertryck gran.</t>
+          <t>Ringhack, äldre, enstaka på en gran. Mycket högt livsmiljövärde för tretåig hackspett kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1723,6 +1698,31 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">

--- a/artfynd/A 54750-2025 artfynd.xlsx
+++ b/artfynd/A 54750-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130853761</v>
+        <v>130861152</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>91804</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Djupbäcken, Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442771</v>
+        <v>442868</v>
       </c>
       <c r="R3" t="n">
-        <v>7039709</v>
+        <v>7039767</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -850,19 +850,14 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>11:05</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>I stående levande gran med full längd.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -877,22 +872,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130861152</v>
+        <v>130853761</v>
       </c>
       <c r="B4" t="n">
-        <v>91804</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,37 +895,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442868</v>
+        <v>442771</v>
       </c>
       <c r="R4" t="n">
-        <v>7039767</v>
+        <v>7039709</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -957,14 +952,19 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>I stående levande gran med full längd.</t>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -979,12 +979,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>

--- a/artfynd/A 54750-2025 artfynd.xlsx
+++ b/artfynd/A 54750-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130861152</v>
+        <v>130853761</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442868</v>
+        <v>442771</v>
       </c>
       <c r="R3" t="n">
-        <v>7039767</v>
+        <v>7039709</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -850,14 +850,19 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>I stående levande gran med full längd.</t>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -872,22 +877,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130853761</v>
+        <v>130861152</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>91804</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,37 +900,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Djupbäcken, Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442771</v>
+        <v>442868</v>
       </c>
       <c r="R4" t="n">
-        <v>7039709</v>
+        <v>7039767</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -952,19 +957,14 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>11:05</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>I stående levande gran med full längd.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -979,12 +979,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130861155</v>
+        <v>130861151</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,34 +1513,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442870</v>
+        <v>442749</v>
       </c>
       <c r="R10" t="n">
-        <v>7039632</v>
+        <v>7039568</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1577,7 +1585,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På död undertryck gran.</t>
+          <t>Ringhack, äldre, enstaka på en gran. Mycket högt livsmiljövärde för tretåig hackspett kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1588,6 +1596,31 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1604,10 +1637,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130861151</v>
+        <v>130861155</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1615,42 +1648,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442749</v>
+        <v>442870</v>
       </c>
       <c r="R11" t="n">
-        <v>7039568</v>
+        <v>7039632</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1687,7 +1712,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran. Mycket högt livsmiljövärde för tretåig hackspett kring fyndplatsen.</t>
+          <t>På död undertryck gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1698,31 +1723,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">

--- a/artfynd/A 54750-2025 artfynd.xlsx
+++ b/artfynd/A 54750-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130861152</v>
+        <v>130853761</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442868</v>
+        <v>442771</v>
       </c>
       <c r="R3" t="n">
-        <v>7039767</v>
+        <v>7039709</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -850,14 +850,19 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>I stående levande gran med full längd.</t>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -872,22 +877,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130853761</v>
+        <v>130861152</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>91804</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,37 +900,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Djupbäcken, Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442771</v>
+        <v>442868</v>
       </c>
       <c r="R4" t="n">
-        <v>7039709</v>
+        <v>7039767</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -952,19 +957,14 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>11:05</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>I stående levande gran med full längd.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -979,12 +979,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130861151</v>
+        <v>130861155</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,42 +1513,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>442749</v>
+        <v>442870</v>
       </c>
       <c r="R10" t="n">
-        <v>7039568</v>
+        <v>7039632</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1585,7 +1577,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka på en gran. Mycket högt livsmiljövärde för tretåig hackspett kring fyndplatsen.</t>
+          <t>På död undertryck gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1596,31 +1588,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1637,10 +1604,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130861155</v>
+        <v>130861151</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1648,34 +1615,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>442870</v>
+        <v>442749</v>
       </c>
       <c r="R11" t="n">
-        <v>7039632</v>
+        <v>7039568</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1712,7 +1687,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På död undertryck gran.</t>
+          <t>Ringhack, äldre, enstaka på en gran. Mycket högt livsmiljövärde för tretåig hackspett kring fyndplatsen.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1723,6 +1698,31 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">

--- a/artfynd/A 54750-2025 artfynd.xlsx
+++ b/artfynd/A 54750-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130861157</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130861152</v>
+        <v>130853761</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442868</v>
+        <v>442771</v>
       </c>
       <c r="R3" t="n">
-        <v>7039767</v>
+        <v>7039709</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -850,14 +850,19 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>I stående levande gran med full längd.</t>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -872,22 +877,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130853761</v>
+        <v>130861152</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,37 +900,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Djupbäcken, Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442771</v>
+        <v>442868</v>
       </c>
       <c r="R4" t="n">
-        <v>7039709</v>
+        <v>7039767</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -952,19 +957,14 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>11:05</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>I stående levande gran med full längd.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -979,22 +979,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130861156</v>
+        <v>130861158</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>442897</v>
+        <v>442743</v>
       </c>
       <c r="R5" t="n">
-        <v>7039676</v>
+        <v>7039650</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På död stående gran med full längd.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1093,10 +1093,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130861158</v>
+        <v>130861156</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>442743</v>
+        <v>442897</v>
       </c>
       <c r="R6" t="n">
-        <v>7039650</v>
+        <v>7039676</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På död stående gran med full längd.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1198,7 +1198,7 @@
         <v>130861153</v>
       </c>
       <c r="B7" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>130853919</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>130861159</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>130861155</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>130861154</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>130865695</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>130865696</v>
       </c>
       <c r="B14" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>130865694</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>130865692</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>130865947</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>130865952</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>

--- a/artfynd/A 54750-2025 artfynd.xlsx
+++ b/artfynd/A 54750-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130853761</v>
+        <v>130861152</v>
       </c>
       <c r="B3" t="n">
-        <v>79245</v>
+        <v>91805</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Djupbäcken, Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>442771</v>
+        <v>442868</v>
       </c>
       <c r="R3" t="n">
-        <v>7039709</v>
+        <v>7039767</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -850,19 +850,14 @@
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>11:05</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>I stående levande gran med full längd.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -877,22 +872,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130861152</v>
+        <v>130853761</v>
       </c>
       <c r="B4" t="n">
-        <v>91805</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,37 +895,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Djupbäcken, Jmt</t>
+          <t>Djupbäcken, Djupbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>442868</v>
+        <v>442771</v>
       </c>
       <c r="R4" t="n">
-        <v>7039767</v>
+        <v>7039709</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -957,14 +952,19 @@
           <t>2026-01-24</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-24</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>I stående levande gran med full längd.</t>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -979,19 +979,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130861158</v>
+        <v>130861156</v>
       </c>
       <c r="B5" t="n">
         <v>79244</v>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>442743</v>
+        <v>442897</v>
       </c>
       <c r="R5" t="n">
-        <v>7039650</v>
+        <v>7039676</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På död stående gran med full längd.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1093,7 +1093,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130861156</v>
+        <v>130861158</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>442897</v>
+        <v>442743</v>
       </c>
       <c r="R6" t="n">
-        <v>7039676</v>
+        <v>7039650</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På död stående gran med full längd.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
